--- a/Code/Results/Cases/Case_5_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.74704205010694</v>
+        <v>8.938819938647542</v>
       </c>
       <c r="C2">
-        <v>8.834169730461999</v>
+        <v>5.600988739745013</v>
       </c>
       <c r="D2">
-        <v>4.499214925370741</v>
+        <v>4.572609394117377</v>
       </c>
       <c r="E2">
-        <v>29.61745914412068</v>
+        <v>16.48800361265332</v>
       </c>
       <c r="F2">
-        <v>17.80239864025508</v>
+        <v>22.86306017478281</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>12.27395289288183</v>
+        <v>19.31656217468171</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.68950168548041</v>
+        <v>8.736392222137528</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.29528647563769</v>
+        <v>17.52924621832931</v>
       </c>
       <c r="O2">
-        <v>13.96771777941174</v>
+        <v>20.43177991603501</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.87207686127162</v>
+        <v>8.595745181530914</v>
       </c>
       <c r="C3">
-        <v>8.316518156137926</v>
+        <v>5.344437272379126</v>
       </c>
       <c r="D3">
-        <v>4.346423726010582</v>
+        <v>4.515740681239259</v>
       </c>
       <c r="E3">
-        <v>27.48265050439618</v>
+        <v>15.55441097959246</v>
       </c>
       <c r="F3">
-        <v>17.32806659166523</v>
+        <v>22.85798319484641</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>12.35738010549552</v>
+        <v>19.39331494579942</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.95552134949783</v>
+        <v>8.49156782699146</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.49614384474472</v>
+        <v>17.58768085849675</v>
       </c>
       <c r="O3">
-        <v>13.83745789658703</v>
+        <v>20.48199027864781</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.30450424275835</v>
+        <v>8.379316793265259</v>
       </c>
       <c r="C4">
-        <v>7.982768417775171</v>
+        <v>5.179321475052843</v>
       </c>
       <c r="D4">
-        <v>4.249123180990829</v>
+        <v>4.479922716352814</v>
       </c>
       <c r="E4">
-        <v>26.1076233056083</v>
+        <v>14.95632413580999</v>
       </c>
       <c r="F4">
-        <v>17.04880100494807</v>
+        <v>22.86150698468045</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>12.41983382369072</v>
+        <v>19.44440815652837</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.48171940607586</v>
+        <v>8.339027531667458</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.62188010162686</v>
+        <v>17.62520077763389</v>
       </c>
       <c r="O4">
-        <v>13.77105884256313</v>
+        <v>20.51773012443044</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.06557361961339</v>
+        <v>8.289805315195817</v>
       </c>
       <c r="C5">
-        <v>7.842784699193084</v>
+        <v>5.110174352179126</v>
       </c>
       <c r="D5">
-        <v>4.208631612669233</v>
+        <v>4.46510797389413</v>
       </c>
       <c r="E5">
-        <v>25.53085235351323</v>
+        <v>14.70661821184783</v>
       </c>
       <c r="F5">
-        <v>16.9380914792952</v>
+        <v>22.86461198251146</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>12.44796852597033</v>
+        <v>19.46622464860719</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.28286654895885</v>
+        <v>8.276404596909034</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.6737524508123</v>
+        <v>17.6409043639107</v>
       </c>
       <c r="O5">
-        <v>13.74730495727799</v>
+        <v>20.53352538254939</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02543780890678</v>
+        <v>8.274866895163072</v>
       </c>
       <c r="C6">
-        <v>7.819301171093963</v>
+        <v>5.098581682426955</v>
       </c>
       <c r="D6">
-        <v>4.201858358869869</v>
+        <v>4.462635023427371</v>
       </c>
       <c r="E6">
-        <v>25.43407933509384</v>
+        <v>14.66480244666628</v>
       </c>
       <c r="F6">
-        <v>16.91989732234671</v>
+        <v>22.8652283180901</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>12.45279843904006</v>
+        <v>19.46990733749211</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.2495000185275</v>
+        <v>8.265981147734601</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.68240488504322</v>
+        <v>17.6435369706467</v>
       </c>
       <c r="O6">
-        <v>13.74355683721426</v>
+        <v>20.53622240527008</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.30131288268197</v>
+        <v>8.378114741901937</v>
       </c>
       <c r="C7">
-        <v>7.98089661563379</v>
+        <v>5.178396398895961</v>
       </c>
       <c r="D7">
-        <v>4.24858045177835</v>
+        <v>4.479723794386923</v>
       </c>
       <c r="E7">
-        <v>26.09991168166425</v>
+        <v>14.95298033449857</v>
       </c>
       <c r="F7">
-        <v>17.04729530960505</v>
+        <v>22.86154210416057</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>12.42020256916824</v>
+        <v>19.4446983527408</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.47906091866055</v>
+        <v>8.338184714561979</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.6225770680718</v>
+        <v>17.62541088403106</v>
       </c>
       <c r="O7">
-        <v>13.770725262007</v>
+        <v>20.51793816586434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.45164158006672</v>
+        <v>8.821805501660798</v>
       </c>
       <c r="C8">
-        <v>8.658995031417408</v>
+        <v>5.514131926118308</v>
       </c>
       <c r="D8">
-        <v>4.447276359513549</v>
+        <v>4.553192520359587</v>
       </c>
       <c r="E8">
-        <v>28.89453725796096</v>
+        <v>16.17140624897705</v>
       </c>
       <c r="F8">
-        <v>17.63641439377214</v>
+        <v>22.85993109341511</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>12.30030232591478</v>
+        <v>19.34220212193973</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.44124706278855</v>
+        <v>8.652492726037789</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.36405951427252</v>
+        <v>17.54905472874943</v>
       </c>
       <c r="O8">
-        <v>13.91992097185521</v>
+        <v>20.4480710686587</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.46769173344343</v>
+        <v>9.640695799583842</v>
       </c>
       <c r="C9">
-        <v>9.862168974600364</v>
+        <v>6.11053979213652</v>
       </c>
       <c r="D9">
-        <v>4.807876640294871</v>
+        <v>4.689791849368132</v>
       </c>
       <c r="E9">
-        <v>33.87858406054261</v>
+        <v>18.43668239167303</v>
       </c>
       <c r="F9">
-        <v>18.88291790205658</v>
+        <v>22.90945244221208</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>12.16082078709457</v>
+        <v>19.17276468284195</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.14353292981186</v>
+        <v>9.2473432046315</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.87485899860258</v>
+        <v>17.41227847914674</v>
       </c>
       <c r="O9">
-        <v>14.32484020526739</v>
+        <v>20.35018428811927</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.80471964292036</v>
+        <v>10.20495719013449</v>
       </c>
       <c r="C10">
-        <v>10.66933846420275</v>
+        <v>6.50908653395937</v>
       </c>
       <c r="D10">
-        <v>5.053504563810908</v>
+        <v>4.785174179689933</v>
       </c>
       <c r="E10">
-        <v>37.25824676789027</v>
+        <v>20.07305316876846</v>
       </c>
       <c r="F10">
-        <v>19.84943558800095</v>
+        <v>22.97785299817646</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>12.12606412348761</v>
+        <v>19.06763133117407</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.28143871761338</v>
+        <v>9.66647281377713</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.52420947503501</v>
+        <v>17.31960138553531</v>
       </c>
       <c r="O10">
-        <v>14.69660629647442</v>
+        <v>20.3023204884332</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.38223708221633</v>
+        <v>10.45248734535766</v>
       </c>
       <c r="C11">
-        <v>11.02013999019723</v>
+        <v>6.681506434957936</v>
       </c>
       <c r="D11">
-        <v>5.16078033502885</v>
+        <v>4.827401096023387</v>
       </c>
       <c r="E11">
-        <v>38.73947777559049</v>
+        <v>20.77527044936654</v>
       </c>
       <c r="F11">
-        <v>20.29923694694172</v>
+        <v>23.01587354065688</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>12.1271054456151</v>
+        <v>19.02403025387794</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.77481855754939</v>
+        <v>9.852373386948601</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.36609317985904</v>
+        <v>17.27911795372293</v>
       </c>
       <c r="O11">
-        <v>14.88297060340084</v>
+        <v>20.28580655244902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.59656697919957</v>
+        <v>10.54483155020262</v>
       </c>
       <c r="C12">
-        <v>11.15065665052113</v>
+        <v>6.745502237611032</v>
       </c>
       <c r="D12">
-        <v>5.200741952890135</v>
+        <v>4.843217351457295</v>
       </c>
       <c r="E12">
-        <v>39.29276068176088</v>
+        <v>21.03515283316822</v>
       </c>
       <c r="F12">
-        <v>20.47096119009803</v>
+        <v>23.03125743144054</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>12.13010798214547</v>
+        <v>19.00812924808023</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.95818955495879</v>
+        <v>9.922019169569534</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.30637404938294</v>
+        <v>17.26402753495288</v>
       </c>
       <c r="O12">
-        <v>14.95610597974143</v>
+        <v>20.28031199204038</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.55060037623136</v>
+        <v>10.52500646403383</v>
       </c>
       <c r="C13">
-        <v>11.12265033163861</v>
+        <v>6.731777491317597</v>
       </c>
       <c r="D13">
-        <v>5.192165208930924</v>
+        <v>4.839818890874803</v>
       </c>
       <c r="E13">
-        <v>39.17393280059472</v>
+        <v>20.97945026964604</v>
       </c>
       <c r="F13">
-        <v>20.43391610161639</v>
+        <v>23.02790048672494</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>12.12934232893632</v>
+        <v>19.0115266579373</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.91885073328595</v>
+        <v>9.907054073074585</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.31922944621913</v>
+        <v>17.26726688153129</v>
       </c>
       <c r="O13">
-        <v>14.94023966571972</v>
+        <v>20.28146155369965</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.39995726324696</v>
+        <v>10.46011280418878</v>
       </c>
       <c r="C14">
-        <v>11.03092404505279</v>
+        <v>6.686797474023955</v>
       </c>
       <c r="D14">
-        <v>5.164081361536075</v>
+        <v>4.828705837955241</v>
       </c>
       <c r="E14">
-        <v>38.78514678734849</v>
+        <v>20.79677183394257</v>
       </c>
       <c r="F14">
-        <v>20.31333715733682</v>
+        <v>23.01711945740146</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>12.12729911510223</v>
+        <v>19.02270983468856</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.78997377808685</v>
+        <v>9.858118587351978</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.36117719342811</v>
+        <v>17.27787165724953</v>
       </c>
       <c r="O14">
-        <v>14.88893565511556</v>
+        <v>20.28533928839123</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.30711739982573</v>
+        <v>10.42018051986992</v>
       </c>
       <c r="C15">
-        <v>10.97443744039838</v>
+        <v>6.659076658829552</v>
       </c>
       <c r="D15">
-        <v>5.146792515015801</v>
+        <v>4.821875890675964</v>
       </c>
       <c r="E15">
-        <v>38.54602510577266</v>
+        <v>20.68409143438207</v>
       </c>
       <c r="F15">
-        <v>20.23965908321266</v>
+        <v>23.01064399768228</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>12.12639283510233</v>
+        <v>19.0296393318344</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.7105831386285</v>
+        <v>9.828044578586125</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.3868903308857</v>
+        <v>17.28439857916174</v>
       </c>
       <c r="O15">
-        <v>14.85784670702285</v>
+        <v>20.28781341615436</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.766363966889</v>
+        <v>10.18858976415797</v>
       </c>
       <c r="C16">
-        <v>10.64608559659824</v>
+        <v>6.497638087373586</v>
       </c>
       <c r="D16">
-        <v>5.046402311061147</v>
+        <v>4.782390550488811</v>
       </c>
       <c r="E16">
-        <v>37.16035179615216</v>
+        <v>20.02631573808458</v>
       </c>
       <c r="F16">
-        <v>19.82023812672955</v>
+        <v>22.97550667843975</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>12.12635085764031</v>
+        <v>19.0705659692404</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.24870913082395</v>
+        <v>9.654222155501154</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.53456711080501</v>
+        <v>17.32228069194875</v>
       </c>
       <c r="O16">
-        <v>14.68478117128755</v>
+        <v>20.30350577803951</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.42680020387798</v>
+        <v>10.04411585700314</v>
       </c>
       <c r="C17">
-        <v>10.44047601421728</v>
+        <v>6.396311535119256</v>
       </c>
       <c r="D17">
-        <v>4.983658560777712</v>
+        <v>4.75786468505858</v>
       </c>
       <c r="E17">
-        <v>36.2962019457451</v>
+        <v>19.61201277992649</v>
       </c>
       <c r="F17">
-        <v>19.56548169423336</v>
+        <v>22.95571531780267</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>12.13077113524522</v>
+        <v>19.09675678467959</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.95916727583037</v>
+        <v>9.546318880176347</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.62548904059679</v>
+        <v>17.34594850363374</v>
       </c>
       <c r="O17">
-        <v>14.58308844503042</v>
+        <v>20.314481584174</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.22859868969237</v>
+        <v>9.96016027386348</v>
       </c>
       <c r="C18">
-        <v>10.32067026517971</v>
+        <v>6.33719612439282</v>
       </c>
       <c r="D18">
-        <v>4.947151085638385</v>
+        <v>4.743648986238585</v>
       </c>
       <c r="E18">
-        <v>35.79384682849017</v>
+        <v>19.36974492644785</v>
       </c>
       <c r="F18">
-        <v>19.41990862455184</v>
+        <v>22.94498224192482</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>12.13488835864239</v>
+        <v>19.11221855301072</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.79034480427334</v>
+        <v>9.483810919519099</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.67791922179363</v>
+        <v>17.35971941260347</v>
       </c>
       <c r="O18">
-        <v>14.52621603504973</v>
+        <v>20.32128949743244</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.16099264230204</v>
+        <v>9.931589401009468</v>
       </c>
       <c r="C19">
-        <v>10.27983998645514</v>
+        <v>6.317037874434779</v>
       </c>
       <c r="D19">
-        <v>4.934718974593123</v>
+        <v>4.738817277864496</v>
       </c>
       <c r="E19">
-        <v>35.62283139118924</v>
+        <v>19.28703403892651</v>
       </c>
       <c r="F19">
-        <v>19.37078644753721</v>
+        <v>22.94146008979354</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>12.13654731145527</v>
+        <v>19.11752184425564</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.73279118338623</v>
+        <v>9.46257250104499</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.6956955408167</v>
+        <v>17.36440914665358</v>
       </c>
       <c r="O19">
-        <v>14.50723541538646</v>
+        <v>20.32367945823845</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.46324644932687</v>
+        <v>10.05958471727972</v>
       </c>
       <c r="C20">
-        <v>10.46252315717519</v>
+        <v>6.407184492836532</v>
       </c>
       <c r="D20">
-        <v>4.990381249003201</v>
+        <v>4.760486844689095</v>
       </c>
       <c r="E20">
-        <v>36.38873952614357</v>
+        <v>19.65652685998972</v>
       </c>
       <c r="F20">
-        <v>19.59250250126607</v>
+        <v>22.95775487203238</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>12.13013628228321</v>
+        <v>19.09392757091869</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.99022589080111</v>
+        <v>9.557851904533976</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.61579665791919</v>
+        <v>17.34341270071316</v>
       </c>
       <c r="O20">
-        <v>14.59374568261345</v>
+        <v>20.31326194860139</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.44432277654326</v>
+        <v>10.47921190877328</v>
       </c>
       <c r="C21">
-        <v>11.05792906499457</v>
+        <v>6.7000444966878</v>
       </c>
       <c r="D21">
-        <v>5.172348364153346</v>
+        <v>4.831974791406905</v>
       </c>
       <c r="E21">
-        <v>38.89954581422163</v>
+        <v>20.85059236686364</v>
       </c>
       <c r="F21">
-        <v>20.34871668880907</v>
+        <v>23.02025939722618</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>12.12782696971581</v>
+        <v>19.01940849728146</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.82792173615562</v>
+        <v>9.87251299306188</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.34885226361853</v>
+        <v>17.27475027960656</v>
       </c>
       <c r="O21">
-        <v>14.90393466917838</v>
+        <v>20.28417968821996</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.06010791538554</v>
+        <v>10.74533272070049</v>
       </c>
       <c r="C22">
-        <v>11.43353423115185</v>
+        <v>6.883885859364369</v>
       </c>
       <c r="D22">
-        <v>5.287411761189965</v>
+        <v>4.877678147678237</v>
       </c>
       <c r="E22">
-        <v>40.49629174188213</v>
+        <v>21.5958387922888</v>
       </c>
       <c r="F22">
-        <v>20.8510568573446</v>
+        <v>23.06685483914202</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>12.14160995927262</v>
+        <v>18.9742612710149</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.35524903526159</v>
+        <v>10.11412956890204</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.17527463809623</v>
+        <v>17.23127247654346</v>
       </c>
       <c r="O22">
-        <v>15.12163907683176</v>
+        <v>20.26959720436031</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.73375766062632</v>
+        <v>10.60406468796979</v>
       </c>
       <c r="C23">
-        <v>11.23429178458399</v>
+        <v>6.786463254071576</v>
       </c>
       <c r="D23">
-        <v>5.226359629368508</v>
+        <v>4.853380778848987</v>
       </c>
       <c r="E23">
-        <v>39.64796126141278</v>
+        <v>21.2012916899622</v>
       </c>
       <c r="F23">
-        <v>20.58222234914325</v>
+        <v>23.04146281555328</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>12.13279198214697</v>
+        <v>18.99803113275984</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.07563727087421</v>
+        <v>9.975358314987437</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.26785107014894</v>
+        <v>17.25434996333092</v>
       </c>
       <c r="O23">
-        <v>15.00404867346815</v>
+        <v>20.27697454701332</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.44677839318386</v>
+        <v>10.0525940294667</v>
       </c>
       <c r="C24">
-        <v>10.45256062374728</v>
+        <v>6.402271510404714</v>
       </c>
       <c r="D24">
-        <v>4.987343275858477</v>
+        <v>4.759301725385036</v>
       </c>
       <c r="E24">
-        <v>36.34692058759526</v>
+        <v>19.63641475436786</v>
       </c>
       <c r="F24">
-        <v>19.58028361794138</v>
+        <v>22.95683077914542</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>12.13041840452316</v>
+        <v>19.09520539915032</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.97619164691099</v>
+        <v>9.55263929221176</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.62017808881748</v>
+        <v>17.34455862633701</v>
       </c>
       <c r="O24">
-        <v>14.58892259281149</v>
+        <v>20.31381179543988</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.94778496192128</v>
+        <v>9.42533219184349</v>
       </c>
       <c r="C25">
-        <v>9.550229455599938</v>
+        <v>5.956043802802212</v>
       </c>
       <c r="D25">
-        <v>4.713611840502606</v>
+        <v>4.653682617796767</v>
       </c>
       <c r="E25">
-        <v>32.58138391593201</v>
+        <v>17.7964552231451</v>
       </c>
       <c r="F25">
-        <v>18.53645899310446</v>
+        <v>22.89042059074011</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>12.18736729561902</v>
+        <v>19.2152117968106</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.70285299705881</v>
+        <v>9.089243263582203</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.00550302745406</v>
+        <v>17.44790188080131</v>
       </c>
       <c r="O25">
-        <v>14.20264829387235</v>
+        <v>20.37245473735731</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_193/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.938819938647542</v>
+        <v>13.74704205010697</v>
       </c>
       <c r="C2">
-        <v>5.600988739745013</v>
+        <v>8.83416973046204</v>
       </c>
       <c r="D2">
-        <v>4.572609394117377</v>
+        <v>4.499214925370739</v>
       </c>
       <c r="E2">
-        <v>16.48800361265332</v>
+        <v>29.61745914412068</v>
       </c>
       <c r="F2">
-        <v>22.86306017478281</v>
+        <v>17.80239864025519</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>19.31656217468171</v>
+        <v>12.2739528928819</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.736392222137528</v>
+        <v>12.68950168548048</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.52924621832931</v>
+        <v>11.29528647563775</v>
       </c>
       <c r="O2">
-        <v>20.43177991603501</v>
+        <v>13.96771777941179</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.595745181530914</v>
+        <v>12.87207686127156</v>
       </c>
       <c r="C3">
-        <v>5.344437272379126</v>
+        <v>8.31651815613797</v>
       </c>
       <c r="D3">
-        <v>4.515740681239259</v>
+        <v>4.346423726010794</v>
       </c>
       <c r="E3">
-        <v>15.55441097959246</v>
+        <v>27.48265050439618</v>
       </c>
       <c r="F3">
-        <v>22.85798319484641</v>
+        <v>17.32806659166522</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>19.39331494579942</v>
+        <v>12.35738010549556</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.49156782699146</v>
+        <v>11.95552134949779</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.58768085849675</v>
+        <v>11.49614384474472</v>
       </c>
       <c r="O3">
-        <v>20.48199027864781</v>
+        <v>13.83745789658709</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.379316793265259</v>
+        <v>12.30450424275841</v>
       </c>
       <c r="C4">
-        <v>5.179321475052843</v>
+        <v>7.982768417775097</v>
       </c>
       <c r="D4">
-        <v>4.479922716352814</v>
+        <v>4.249123180990983</v>
       </c>
       <c r="E4">
-        <v>14.95632413580999</v>
+        <v>26.10762330560825</v>
       </c>
       <c r="F4">
-        <v>22.86150698468045</v>
+        <v>17.04880100494808</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>19.44440815652837</v>
+        <v>12.41983382369073</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.339027531667458</v>
+        <v>11.4817194060759</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.62520077763389</v>
+        <v>11.62188010162692</v>
       </c>
       <c r="O4">
-        <v>20.51773012443044</v>
+        <v>13.77105884256317</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.289805315195817</v>
+        <v>12.0655736196134</v>
       </c>
       <c r="C5">
-        <v>5.110174352179126</v>
+        <v>7.8427846991932</v>
       </c>
       <c r="D5">
-        <v>4.46510797389413</v>
+        <v>4.208631612669114</v>
       </c>
       <c r="E5">
-        <v>14.70661821184783</v>
+        <v>25.5308523535131</v>
       </c>
       <c r="F5">
-        <v>22.86461198251146</v>
+        <v>16.93809147929521</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>19.46622464860719</v>
+        <v>12.44796852597034</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.276404596909034</v>
+        <v>11.28286654895889</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.6409043639107</v>
+        <v>11.6737524508123</v>
       </c>
       <c r="O5">
-        <v>20.53352538254939</v>
+        <v>13.74730495727795</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.274866895163072</v>
+        <v>12.02543780890681</v>
       </c>
       <c r="C6">
-        <v>5.098581682426955</v>
+        <v>7.819301171093937</v>
       </c>
       <c r="D6">
-        <v>4.462635023427371</v>
+        <v>4.201858358869667</v>
       </c>
       <c r="E6">
-        <v>14.66480244666628</v>
+        <v>25.43407933509379</v>
       </c>
       <c r="F6">
-        <v>22.8652283180901</v>
+        <v>16.91989732234682</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>19.46990733749211</v>
+        <v>12.4527984390401</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.265981147734601</v>
+        <v>11.2495000185275</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.6435369706467</v>
+        <v>11.68240488504322</v>
       </c>
       <c r="O6">
-        <v>20.53622240527008</v>
+        <v>13.74355683721427</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.378114741901937</v>
+        <v>12.30131288268199</v>
       </c>
       <c r="C7">
-        <v>5.178396398895961</v>
+        <v>7.980896615633748</v>
       </c>
       <c r="D7">
-        <v>4.479723794386923</v>
+        <v>4.248580451778446</v>
       </c>
       <c r="E7">
-        <v>14.95298033449857</v>
+        <v>26.09991168166423</v>
       </c>
       <c r="F7">
-        <v>22.86154210416057</v>
+        <v>17.04729530960498</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>19.4446983527408</v>
+        <v>12.42020256916822</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.338184714561979</v>
+        <v>11.47906091866057</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.62541088403106</v>
+        <v>11.62257706807176</v>
       </c>
       <c r="O7">
-        <v>20.51793816586434</v>
+        <v>13.77072526200696</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.821805501660798</v>
+        <v>13.45164158006678</v>
       </c>
       <c r="C8">
-        <v>5.514131926118308</v>
+        <v>8.65899503141728</v>
       </c>
       <c r="D8">
-        <v>4.553192520359587</v>
+        <v>4.447276359513434</v>
       </c>
       <c r="E8">
-        <v>16.17140624897705</v>
+        <v>28.89453725796086</v>
       </c>
       <c r="F8">
-        <v>22.85993109341511</v>
+        <v>17.63641439377215</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>19.34220212193973</v>
+        <v>12.30030232591472</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.652492726037789</v>
+        <v>12.44124706278855</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.54905472874943</v>
+        <v>11.36405951427245</v>
       </c>
       <c r="O8">
-        <v>20.4480710686587</v>
+        <v>13.9199209718552</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.640695799583842</v>
+        <v>15.46769173344343</v>
       </c>
       <c r="C9">
-        <v>6.11053979213652</v>
+        <v>9.862168974600294</v>
       </c>
       <c r="D9">
-        <v>4.689791849368132</v>
+        <v>4.807876640294968</v>
       </c>
       <c r="E9">
-        <v>18.43668239167303</v>
+        <v>33.87858406054254</v>
       </c>
       <c r="F9">
-        <v>22.90945244221208</v>
+        <v>18.88291790205656</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>19.17276468284195</v>
+        <v>12.16082078709459</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.2473432046315</v>
+        <v>14.14353292981187</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.41227847914674</v>
+        <v>10.87485899860262</v>
       </c>
       <c r="O9">
-        <v>20.35018428811927</v>
+        <v>14.3248402052674</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.20495719013449</v>
+        <v>16.80471964292037</v>
       </c>
       <c r="C10">
-        <v>6.50908653395937</v>
+        <v>10.6693384642028</v>
       </c>
       <c r="D10">
-        <v>4.785174179689933</v>
+        <v>5.05350456381101</v>
       </c>
       <c r="E10">
-        <v>20.07305316876846</v>
+        <v>37.25824676789029</v>
       </c>
       <c r="F10">
-        <v>22.97785299817646</v>
+        <v>19.84943558800092</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>19.06763133117407</v>
+        <v>12.12606412348764</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.66647281377713</v>
+        <v>15.2814387176134</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.31960138553531</v>
+        <v>10.52420947503501</v>
       </c>
       <c r="O10">
-        <v>20.3023204884332</v>
+        <v>14.69660629647441</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.45248734535766</v>
+        <v>17.38223708221632</v>
       </c>
       <c r="C11">
-        <v>6.681506434957936</v>
+        <v>11.02013999019731</v>
       </c>
       <c r="D11">
-        <v>4.827401096023387</v>
+        <v>5.160780335028837</v>
       </c>
       <c r="E11">
-        <v>20.77527044936654</v>
+        <v>38.73947777559052</v>
       </c>
       <c r="F11">
-        <v>23.01587354065688</v>
+        <v>20.29923694694174</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>19.02403025387794</v>
+        <v>12.12710544561514</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.852373386948601</v>
+        <v>15.77481855754943</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.27911795372293</v>
+        <v>10.36609317985907</v>
       </c>
       <c r="O11">
-        <v>20.28580655244902</v>
+        <v>14.88297060340086</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.54483155020262</v>
+        <v>17.59656697919954</v>
       </c>
       <c r="C12">
-        <v>6.745502237611032</v>
+        <v>11.15065665052119</v>
       </c>
       <c r="D12">
-        <v>4.843217351457295</v>
+        <v>5.200741952890228</v>
       </c>
       <c r="E12">
-        <v>21.03515283316822</v>
+        <v>39.29276068176092</v>
       </c>
       <c r="F12">
-        <v>23.03125743144054</v>
+        <v>20.47096119009801</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>19.00812924808023</v>
+        <v>12.13010798214551</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.922019169569534</v>
+        <v>15.95818955495878</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.26402753495288</v>
+        <v>10.30637404938294</v>
       </c>
       <c r="O12">
-        <v>20.28031199204038</v>
+        <v>14.95610597974143</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.52500646403383</v>
+        <v>17.55060037623141</v>
       </c>
       <c r="C13">
-        <v>6.731777491317597</v>
+        <v>11.12265033163842</v>
       </c>
       <c r="D13">
-        <v>4.839818890874803</v>
+        <v>5.192165208930813</v>
       </c>
       <c r="E13">
-        <v>20.97945026964604</v>
+        <v>39.17393280059467</v>
       </c>
       <c r="F13">
-        <v>23.02790048672494</v>
+        <v>20.4339161016164</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>19.0115266579373</v>
+        <v>12.12934232893629</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.907054073074585</v>
+        <v>15.91885073328595</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.26726688153129</v>
+        <v>10.31922944621913</v>
       </c>
       <c r="O13">
-        <v>20.28146155369965</v>
+        <v>14.94023966571973</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.46011280418878</v>
+        <v>17.39995726324706</v>
       </c>
       <c r="C14">
-        <v>6.686797474023955</v>
+        <v>11.03092404505268</v>
       </c>
       <c r="D14">
-        <v>4.828705837955241</v>
+        <v>5.164081361536175</v>
       </c>
       <c r="E14">
-        <v>20.79677183394257</v>
+        <v>38.78514678734854</v>
       </c>
       <c r="F14">
-        <v>23.01711945740146</v>
+        <v>20.31333715733683</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>19.02270983468856</v>
+        <v>12.12729911510217</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.858118587351978</v>
+        <v>15.78997377808688</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.27787165724953</v>
+        <v>10.36117719342808</v>
       </c>
       <c r="O14">
-        <v>20.28533928839123</v>
+        <v>14.88893565511554</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.42018051986992</v>
+        <v>17.30711739982573</v>
       </c>
       <c r="C15">
-        <v>6.659076658829552</v>
+        <v>10.97443744039833</v>
       </c>
       <c r="D15">
-        <v>4.821875890675964</v>
+        <v>5.146792515015801</v>
       </c>
       <c r="E15">
-        <v>20.68409143438207</v>
+        <v>38.54602510577261</v>
       </c>
       <c r="F15">
-        <v>23.01064399768228</v>
+        <v>20.23965908321271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>19.0296393318344</v>
+        <v>12.12639283510239</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.828044578586125</v>
+        <v>15.71058313862847</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.28439857916174</v>
+        <v>10.38689033088563</v>
       </c>
       <c r="O15">
-        <v>20.28781341615436</v>
+        <v>14.85784670702288</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.18858976415797</v>
+        <v>16.76636396688895</v>
       </c>
       <c r="C16">
-        <v>6.497638087373586</v>
+        <v>10.64608559659824</v>
       </c>
       <c r="D16">
-        <v>4.782390550488811</v>
+        <v>5.046402311061127</v>
       </c>
       <c r="E16">
-        <v>20.02631573808458</v>
+        <v>37.16035179615223</v>
       </c>
       <c r="F16">
-        <v>22.97550667843975</v>
+        <v>19.82023812672958</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>19.0705659692404</v>
+        <v>12.12635085764035</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.654222155501154</v>
+        <v>15.24870913082393</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.32228069194875</v>
+        <v>10.534567110805</v>
       </c>
       <c r="O16">
-        <v>20.30350577803951</v>
+        <v>14.68478117128761</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.04411585700314</v>
+        <v>16.42680020387801</v>
       </c>
       <c r="C17">
-        <v>6.396311535119256</v>
+        <v>10.44047601421727</v>
       </c>
       <c r="D17">
-        <v>4.75786468505858</v>
+        <v>4.983658560777802</v>
       </c>
       <c r="E17">
-        <v>19.61201277992649</v>
+        <v>36.29620194574521</v>
       </c>
       <c r="F17">
-        <v>22.95571531780267</v>
+        <v>19.56548169423335</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>19.09675678467959</v>
+        <v>12.13077113524523</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.546318880176347</v>
+        <v>14.95916727583037</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.34594850363374</v>
+        <v>10.62548904059679</v>
       </c>
       <c r="O17">
-        <v>20.314481584174</v>
+        <v>14.58308844503043</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.96016027386348</v>
+        <v>16.22859868969244</v>
       </c>
       <c r="C18">
-        <v>6.33719612439282</v>
+        <v>10.32067026517957</v>
       </c>
       <c r="D18">
-        <v>4.743648986238585</v>
+        <v>4.94715108563834</v>
       </c>
       <c r="E18">
-        <v>19.36974492644785</v>
+        <v>35.79384682849022</v>
       </c>
       <c r="F18">
-        <v>22.94498224192482</v>
+        <v>19.41990862455192</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>19.11221855301072</v>
+        <v>12.13488835864235</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.483810919519099</v>
+        <v>14.79034480427336</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.35971941260347</v>
+        <v>10.67791922179363</v>
       </c>
       <c r="O18">
-        <v>20.32128949743244</v>
+        <v>14.52621603504975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.931589401009468</v>
+        <v>16.16099264230218</v>
       </c>
       <c r="C19">
-        <v>6.317037874434779</v>
+        <v>10.27983998645498</v>
       </c>
       <c r="D19">
-        <v>4.738817277864496</v>
+        <v>4.934718974593078</v>
       </c>
       <c r="E19">
-        <v>19.28703403892651</v>
+        <v>35.6228313911892</v>
       </c>
       <c r="F19">
-        <v>22.94146008979354</v>
+        <v>19.37078644753714</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>19.11752184425564</v>
+        <v>12.13654731145508</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.46257250104499</v>
+        <v>14.73279118338626</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.36440914665358</v>
+        <v>10.69569554081657</v>
       </c>
       <c r="O19">
-        <v>20.32367945823845</v>
+        <v>14.50723541538638</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.05958471727972</v>
+        <v>16.46324644932687</v>
       </c>
       <c r="C20">
-        <v>6.407184492836532</v>
+        <v>10.46252315717524</v>
       </c>
       <c r="D20">
-        <v>4.760486844689095</v>
+        <v>4.990381249003201</v>
       </c>
       <c r="E20">
-        <v>19.65652685998972</v>
+        <v>36.38873952614356</v>
       </c>
       <c r="F20">
-        <v>22.95775487203238</v>
+        <v>19.59250250126611</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>19.09392757091869</v>
+        <v>12.13013628228325</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.557851904533976</v>
+        <v>14.99022589080113</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.34341270071316</v>
+        <v>10.61579665791923</v>
       </c>
       <c r="O20">
-        <v>20.31326194860139</v>
+        <v>14.59374568261348</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.47921190877328</v>
+        <v>17.44432277654323</v>
       </c>
       <c r="C21">
-        <v>6.7000444966878</v>
+        <v>11.05792906499454</v>
       </c>
       <c r="D21">
-        <v>4.831974791406905</v>
+        <v>5.172348364153303</v>
       </c>
       <c r="E21">
-        <v>20.85059236686364</v>
+        <v>38.8995458142216</v>
       </c>
       <c r="F21">
-        <v>23.02025939722618</v>
+        <v>20.34871668880908</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>19.01940849728146</v>
+        <v>12.12782696971583</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.87251299306188</v>
+        <v>15.8279217361556</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.27475027960656</v>
+        <v>10.34885226361853</v>
       </c>
       <c r="O21">
-        <v>20.28417968821996</v>
+        <v>14.9039346691784</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.74533272070049</v>
+        <v>18.06010791538556</v>
       </c>
       <c r="C22">
-        <v>6.883885859364369</v>
+        <v>11.43353423115171</v>
       </c>
       <c r="D22">
-        <v>4.877678147678237</v>
+        <v>5.287411761189988</v>
       </c>
       <c r="E22">
-        <v>21.5958387922888</v>
+        <v>40.49629174188212</v>
       </c>
       <c r="F22">
-        <v>23.06685483914202</v>
+        <v>20.85105685734466</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>18.9742612710149</v>
+        <v>12.14160995927265</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.11412956890204</v>
+        <v>16.35524903526153</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.23127247654346</v>
+        <v>10.17527463809626</v>
       </c>
       <c r="O22">
-        <v>20.26959720436031</v>
+        <v>15.12163907683184</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.60406468796979</v>
+        <v>17.73375766062639</v>
       </c>
       <c r="C23">
-        <v>6.786463254071576</v>
+        <v>11.23429178458393</v>
       </c>
       <c r="D23">
-        <v>4.853380778848987</v>
+        <v>5.226359629368638</v>
       </c>
       <c r="E23">
-        <v>21.2012916899622</v>
+        <v>39.6479612614129</v>
       </c>
       <c r="F23">
-        <v>23.04146281555328</v>
+        <v>20.58222234914326</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>18.99803113275984</v>
+        <v>12.13279198214696</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.975358314987437</v>
+        <v>16.07563727087425</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.25434996333092</v>
+        <v>10.26785107014894</v>
       </c>
       <c r="O23">
-        <v>20.27697454701332</v>
+        <v>15.00404867346815</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.0525940294667</v>
+        <v>16.44677839318388</v>
       </c>
       <c r="C24">
-        <v>6.402271510404714</v>
+        <v>10.45256062374731</v>
       </c>
       <c r="D24">
-        <v>4.759301725385036</v>
+        <v>4.987343275858458</v>
       </c>
       <c r="E24">
-        <v>19.63641475436786</v>
+        <v>36.34692058759533</v>
       </c>
       <c r="F24">
-        <v>22.95683077914542</v>
+        <v>19.58028361794138</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>19.09520539915032</v>
+        <v>12.13041840452311</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.55263929221176</v>
+        <v>14.97619164691099</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.34455862633701</v>
+        <v>10.62017808881738</v>
       </c>
       <c r="O24">
-        <v>20.31381179543988</v>
+        <v>14.58892259281145</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.42533219184349</v>
+        <v>14.94778496192131</v>
       </c>
       <c r="C25">
-        <v>5.956043802802212</v>
+        <v>9.550229455599979</v>
       </c>
       <c r="D25">
-        <v>4.653682617796767</v>
+        <v>4.713611840502501</v>
       </c>
       <c r="E25">
-        <v>17.7964552231451</v>
+        <v>32.58138391593198</v>
       </c>
       <c r="F25">
-        <v>22.89042059074011</v>
+        <v>18.53645899310443</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>19.2152117968106</v>
+        <v>12.18736729561902</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.089243263582203</v>
+        <v>13.70285299705888</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.44790188080131</v>
+        <v>11.0055030274541</v>
       </c>
       <c r="O25">
-        <v>20.37245473735731</v>
+        <v>14.20264829387228</v>
       </c>
     </row>
   </sheetData>
